--- a/cleaned/aditya_birla_sun_life_mutual_fund_portfolio.xlsx
+++ b/cleaned/aditya_birla_sun_life_mutual_fund_portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name of Instrument</t>
+          <t>name of instrument</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>isin</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Rating/Industry</t>
+          <t>coupon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Yield</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Market Value</t>
+          <t>market value (mkt)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Net Asset Value (NAV)</t>
+          <t>% to net assets (nav)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>yield to call (ytc)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>yield to maturity (ytm)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Scheme</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AmcName</t>
         </is>
@@ -496,38 +511,37 @@
           <t>INE018A01030</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>10884</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>388.25</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>0.118653458743058</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -544,38 +558,37 @@
           <t>INE733E01010</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>84346</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>273.49</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>0.0835812546801263</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -592,38 +605,37 @@
           <t>INE213A01029</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Oil</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>93848</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>246.35</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>0.0752867828819423</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -640,38 +652,37 @@
           <t>INE752E01010</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>80901</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>244.2</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>0.0746293192323221</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -688,38 +699,37 @@
           <t>INE646L01027</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Transport Services</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>4737</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>204.89</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>0.0626165377118438</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -736,38 +746,37 @@
           <t>INE415G01027</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>41615</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>198.27</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>0.0605942815050956</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -784,38 +793,37 @@
           <t>INE742F01042</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Transport Infrastructure</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>17673</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>194.33</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>0.0593894657595981</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -832,38 +840,37 @@
           <t>INE134E01011</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>34942</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>147.65</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>0.0451222009567882</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -880,38 +887,37 @@
           <t>INE020B01018</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>29782</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>133.97</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>0.0409435970164657</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -928,38 +934,37 @@
           <t>INE129A01019</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Gas</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>64872</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>114.95</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>0.0351305876793517</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -976,38 +981,37 @@
           <t>INE245A01021</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>30063</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>109.5</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>0.0334654205671706</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -1024,38 +1028,37 @@
           <t>INE868B01028</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>36202</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>91.34</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>0.0279134954733275</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -1072,38 +1075,37 @@
           <t>INE821I01022</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>147321</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>84.46</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>0.0258113672362077</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -1120,38 +1122,37 @@
           <t>INE220B01022</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>7805</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>82.58</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>0.0252385285819999</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -1168,38 +1169,37 @@
           <t>INE814H01011</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>15747</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>80.82</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>0.0246996725352862</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -1216,38 +1216,37 @@
           <t>INE095N01031</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>75846</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>75.7</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>0.0231350875455278</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -1264,38 +1263,37 @@
           <t>INE389H01022</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>8932</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>75.07</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>0.0229416688076924</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -1312,38 +1310,37 @@
           <t>INE053F01010</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>44027</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>66.46</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>0.0203103132165868</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -1360,38 +1357,37 @@
           <t>INE364U01010</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>6467</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>64.61</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>0.01974586801901</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -1408,38 +1404,37 @@
           <t>INE776C01039</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>Transport Infrastructure</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>86392</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>62.8</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>0.0191916629130913</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -1456,38 +1451,37 @@
           <t>INE274J01014</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>Oil</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>12917</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>54.39</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
           <t>0.0166230729567193</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -1504,38 +1498,37 @@
           <t>INE962Y01021</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>24334</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>53.91</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>0.0164759197532596</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -1552,38 +1545,37 @@
           <t>INE121E01018</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>9307</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>47.38</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
           <t>0.014478866561941</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -1600,38 +1592,37 @@
           <t>INE848E01016</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>55278</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>44.48</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
           <t>0.013592419191014</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -1648,38 +1639,37 @@
           <t>INE813H01021</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>2986</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>43.66</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>0.0133432306390032</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -1696,38 +1686,37 @@
           <t>INE017A01032</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>Transport Services</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>2440</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>23.99</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
           <t>0.00733155515618133</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -1744,38 +1733,37 @@
           <t>INE246F01010</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>Gas</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>6924</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>23.95</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>0.00732039986089632</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -1792,38 +1780,37 @@
           <t>INE486A01021</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>11059</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>15.81</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
           <t>0.00483130469264893</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -1840,38 +1827,37 @@
           <t>INE002L01015</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>12557</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>12.23</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>0.00373774148755104</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
@@ -1888,38 +1874,37 @@
           <t>INE517F01014</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>Transport Infrastructure</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>6514</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>9.9</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>0.00302491286238526</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>ABBSEIIF</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>ABBSEIIF</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>Aditya Birla Sun Life Mutual Fund</t>
         </is>
